--- a/crawling_data.xlsx
+++ b/crawling_data.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YS\Desktop\project\crawler\crawling_xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YS\Desktop\project\v_chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F45FC6-13E0-4004-81B9-C1F7FC453B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5004B6CA-AF53-4245-A61A-F556CC9A9D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="비건 정보" sheetId="6" r:id="rId1"/>
-    <sheet name="동물성, 식물성 성분" sheetId="1" r:id="rId2"/>
-    <sheet name="한국채식연합QnA" sheetId="2" r:id="rId3"/>
-    <sheet name="러빙헛 비건 규범" sheetId="4" r:id="rId4"/>
-    <sheet name="비건성분 veganwolf" sheetId="5" r:id="rId5"/>
+    <sheet name="한국채식연합QnA" sheetId="2" r:id="rId1"/>
+    <sheet name="비건성분 veganwolf" sheetId="5" r:id="rId2"/>
+    <sheet name="비건 정보" sheetId="6" r:id="rId3"/>
+    <sheet name="동물성, 식물성 성분" sheetId="1" r:id="rId4"/>
+    <sheet name="러빙헛 비건 규범" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6024" uniqueCount="5747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6573" uniqueCount="6281">
   <si>
     <t>질문 번호</t>
   </si>
@@ -28849,10 +28849,6 @@
     <t>락티톨 – 감미료</t>
   </si>
   <si>
-    <t>동물성 성분(A-Z)/veganwolf - 한국채식연합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Retinol. Vitamin A. Palmitate (see Palmitic Acid). An aliphatic alcohol.
 생선의 간 오일(상어 간), 계란 노른자, 버터, 레몬그라스, 맥아, 당근의 캐로틴에서 온 것일 수 있다.
 화장품, 크림, 향수, 헤어 염색약, 비타민, 보충제 등에 사용됨.
@@ -29181,6 +29177,2105 @@
   </si>
   <si>
     <t>한국채식연합 추산 150만명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASPARTIC ACID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Aminosuccinate Acid.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASPIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An industry alternative for gelatin. Is made from clarified meat, fish or vegetable stocks and gelatin.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batyl Alcohol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batyl Isostearate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEE POLLEN(꽃가루)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿀벌의 다리에서 모음. 알러지를 일으킬 수 있다.
+샴푸, 치약, 방취제에 사용. 사람에게 쓰기에는 농도가 너무 높다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEE PRODUCTS(벌꿀 제품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿀벌을 선택적으로 기르기 때문에 추려진 것들은 죽임을 당한다.
+싸구려 설탕으로 그들이 모은 벌꿀을 바꿔치기하고, 결과적으로 수만마리가 죽임을 당한다.
+꽃가루 채집기에서 꿀벌들의 다리가 찢겨나간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEESWAX(밀랍)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌집에서 얻는다. 매우 저렴하고 전통적으로 사용되는 것이지만 피부에 해롭다.
+피부의 호흡을 막기 때문에 일부 화장품회사에서는 사용하지 않는다.
+립스틱 및 얼굴용 크림, 로션, 마스카라, 아이크림, 아이새도, 메이크업베이스, 네일 화이트너 등의 화장품에 쓰인다.
+양초, 크레용, 광택제를 만드는 데 쓰인다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BENZOIC ACID(안식향산)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거의 모든 척추 동물과 알(물고기,새우의 알)에 들어 있는 것으로 구강청결제, 탈취제(데오도란트), 크림, 에프터쉐이브 로션, 향수, 음식, 음료수에 들어있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benzyltrimonium Hydrolyzed Animal Protein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BETA CAROTENE(베타 카로틴) Provitamin A. Carotene.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물의 조직 및 모든 식물에서 발견되는 것으로 화장품의 색을 낼 때, 비타민 A를 제조할 때 사용.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIOTIN(비오틴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vitamin H. Vitamin B Factor. In every living cell and in larger amounts in milk and yeast. Used in cosmetics, shampoos, creams. Alternatives: plant sources.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOOD(피)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도살된 동물의 피는 치즈를 만들 때, 거품고무(?), 의약품, 합판 접착제에 사용될 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOAR BRISTLES(멧돼지털)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야생 및 사로잡힌 돼지의 털.
+'천연' 칫솔, 헤어브러쉬, 목욕용 브러쉬, 화장솔, 면도용 브러쉬에 사용.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BONE ASH(골회) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone Earth 뼈를 태워 얻는 재. 비료로 사용된다. 세라믹, 청소 및 광택제에 사용.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BONEBLACK(골탄)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone Charcoal.
+수족관의 필터나 사탕수수의 당을 정제하는 데 쓰인다.
+아이섀도우, 광택제에도 쓰인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BONE CHARCOAL See Boneblack</t>
+  </si>
+  <si>
+    <t>-BONE EARTH See Bone Ash</t>
+  </si>
+  <si>
+    <t>-BONE MEAL See Animal Bones</t>
+  </si>
+  <si>
+    <t>Brain Extract</t>
+  </si>
+  <si>
+    <t>Buttermilk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버터밀크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C30-46 Piscine Oil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALCIFEROOL(칼시페롤)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vitamin D. Ergocalciferol (Vitamin D2, Ergosterol, provitarnin D2, Calciferool). Vitamin D3.
+비타민 D는 생선 간 오일, 달걀, 우유, 버터에서 얻은 것일 수 있다.
+비타민 D2는 식물이나 이스트의 프로비타민인 에르고스테롤에 빛을 쪼여 얻는다.
+비타민 D3은 생선 간 오일에서 얻은 것일 수 있다.
+크림, 로션, 기타 화장품, 비타민 등에 들어있다.
+대체물: 햇볕, 식물성, 인조.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALCIUM CARBONATE(탄산칼슘)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calcite. Aragonite.
+흰색 혹은 무색의 분말로 결정이 있으며 석회석, 대리석, 초크, 뼈, 이빨, 조개껍질, 식물의 재 등이 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALCIUM HYDROXIDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slaked lime, a white crystalline compound prepared by the action of water on Calcium Oxide, used in making alkalies, bleaching powder, etc.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALCIUM OXIDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a white soft, caustic solid, prepared by heating Calcium Carbonate; lime: used in making mortar and plaster, and in ceramics.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALCIUM PHOSPHATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Any number of phosphates of calcium found in bones, teeth, and other animal tissues and used in medicine and in the manufacture of enamels, glass, cleaning agents, etc.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calfskin Extract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cantharides Tincture - Spanish Fly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carbamide - Urea, urine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carmine - Cochineal(카민 - 코치닐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carminic Acid - Natural Red No. 4 (E120)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAPRYLIC ACID(카프릴산, 옥탄산)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can come from cow or goat milk. Also from palm and coconut oil, other plant oils. In perfumes, soaps.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARBAMIDE(카르바미드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Urea(요소). Imidazolidinyl Urea. Uric Acid. 소변 및 체액에서 발견되는 것이다.
+인공적으로 탈취제, 암모니아 화합 치약, 구강청결제, 머리카락 염색약, 핸드크림, 로션, 샴푸 등에 쓰인다.
+프렛젤 등에 갈색 빛을 주는 데에도 사용한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARMINE(카민, 코치닐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cochineal(코치닐:연지벌레). Carminic Acid. E120.
+암컷 연지벌레를 으깨어 얻는 빨강 색소. 빨강 염료 1파운드를 얻기 위해 7만마리의 딱정벌레가 죽임을 당한다.
+화장품, 샴푸, 빨간색 애플소스, 기타 음식에 사용된다. 알러지를 일으킬 수도 있다.
+대체물: 비트즙(알려진 독성이 없다. 파우더, 루즈, 샴푸에 사용) 알카나 뿌리(alkanet root, 잉크, 와인, 립밤 등에 색소로 사용할 수 있고, 구리색, 파란색을 만들 때 혼합한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARMINIC ACID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Carmine.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAROTENE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Beta Carotene.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASEIN(카제인, 우유 단백질)</t>
+  </si>
+  <si>
+    <t>Caseinogen. Milk protein. In "non-dairy" creamers, many cosmetics, hair preparations, beauty masks. Alternatives: soy protein, vegetable milks.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASEINOGEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Casein.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASTOR(비버향)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Castoreum. 사향뒤쥐와 비버의 생식기에서 얻는 것. 향수와 향에 사용된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASTOREUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Castor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CATGUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tough cord or thread made from the intestines of sheep, horses, etc. Used for surgical sutures and for stringing tennis rackets and musical instruments, etc. Alternatives: nylon &amp; other man-made fibers.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Catharidin</t>
+  </si>
+  <si>
+    <t>-Ceteth-2 - Poltethylene (2) Cetyl Ether</t>
+  </si>
+  <si>
+    <t>-Ceteth-2, -4, -6, -10, -30</t>
+  </si>
+  <si>
+    <t>CETYL ALCOHOL(세틸 알콜)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cetyl Lactate. Cetyl Myristate. Cetyl Palmitate. Ceteth-1, 02, etc. 향유고래나 돌고래의 머리부분에 있는 왁스이다.
+립스틱, 마스카라, 메니큐어 리무버, 핸드로션, 크림, 루즈, 샴푸, 헤어라커, 데오도란트, 소염제 등에 사용된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CETYL LACTATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Cetyl Alcohol.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CETYL MYRISTATE/ CETETH-(#)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CETYL PALMITATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Spermaceti and Cetyl Alcohol.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHOLESTERIN: Cholesterol.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물의 지방, 신경조직, 달걀노른자, 피에 들어있는 스테로이드 알콜.
+라놀린에서 얻은 것일 수도 있다. 화장품, 아이크림, 샴푸 등에 사용된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHOLESTEROL(콜레스테롤)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Cholesterin.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHOLINE BITARTATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lecithin. In all living organisms. Frequently obtained for commercial purposes from eggs and soybeans (when stated soy lecithin). Also from nerve tissue, blood, milk, corn. Choline bitartrate, the basic constituent of lecithin, is in many animal and plant tissues or prepared synthetically. Lecithin can be in eye creams, lipsticks, liquid powders, hand creams, lotions, soaps, shampoos, other cosmetics, candies, other foods and medicines.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chondroitin(콘드로이친)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물의 연골조직, 기관지나 상어의 연골 등에서 만들어진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIVET(사향)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 포유류인 사향고양이에게 고통을 주어 얻는다.
+사향고양이를 우리에 넣고 끔찍하게 다룬다. 향수의 고착제로 사용된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COCHINEAL (E120)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COD LIVER OIL:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish Liver Oil. Fish Livers. Used in Lubricating creams and lotions, vitamins and supplements. In milk fortified with Vitamin D. Alternatives: vegetable oils, yeast extract ergosterol, sunshine.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coleth-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLLAGEN(콜라겐, 동물 근육 조직 등에 분포함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A fibrous protein in vertebrates. Usually derived from animal tissue. In cosmetics. Can't affect the skin's own collagen. Alternatives: soy protein, almond oil, amla oil (from Indian tree's fruit).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CORTICO STEROID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cortisone. Hormone from cattle liver. Widely used in medicine. Alternatives: synthetics.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CORTISONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Cortico Steroid.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CYSTEINE(시스테인), L-Form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cystine. Two amino acids which can come from animals.
+Used in hair products and creams, in some bakery products and wound healing formulations. Alternatives: Plant sources.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CYSTINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Cysteine, L-Form.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dea-Oleth-10 Phosphate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNA/RNA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deoxyribonucleic Acid. Ribonucleic Acid. Polypeptides. Obtained from slaughterhouse wastes. In all living cells. Used in many protein shampoos and cosmetics. Alternatives: plant cells.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEOXYRIBONUCLEIC ACID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See DNA/RNA.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPANTHENOL(디판테놀)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panthenol. Vitamin B Complex Factor. Provitarnin B5. Can come from animal or plant sources or synthetics. In shampoos, foods, supplements, emollients, etc.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desamido Animal Collagen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Desamidocollagen</t>
+  </si>
+  <si>
+    <t>-Dicapryloyl Cystine</t>
+  </si>
+  <si>
+    <t>Diethylene Tricaseinamide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIGLYCERIDES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monoglycerides. Glycerides.
+동물의 지방에서 얻은것. 마가린, 케익 믹스, 사탕/과자, 식품, 땅콩잼, 커피크리머, 화장품에 사용된다.
+대체물: vegetable monoglycerides and diglycerides, synthetics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dihydrocholesterol</t>
+  </si>
+  <si>
+    <t>-Dihydrocholesterol Octyledecanoate</t>
+  </si>
+  <si>
+    <t>-Dihydrocholeth-15</t>
+  </si>
+  <si>
+    <t>-Dihydrocholeth-30</t>
+  </si>
+  <si>
+    <t>-Dihydrogenated Tallow Benzylmoniumchloride</t>
+  </si>
+  <si>
+    <t>-Dihydrogenated Tallow Methylamine</t>
+  </si>
+  <si>
+    <t>-Dihydrogenated Tallow Phthalate</t>
+  </si>
+  <si>
+    <t>-Dihydroxyethyl Tallow Amine Oxide</t>
+  </si>
+  <si>
+    <t>-Dimethyl Hydrogenated Tallowamine</t>
+  </si>
+  <si>
+    <t>-Dimethyl Tallowamine</t>
+  </si>
+  <si>
+    <t>-Disodium Hydrogenated TallowGlutamate</t>
+  </si>
+  <si>
+    <t>-Disodium Tallamido Mea-Sulfosuccinate</t>
+  </si>
+  <si>
+    <t>-Disodium Tallowaminodipropionate</t>
+  </si>
+  <si>
+    <t>-Ditallowdimonium Chloride</t>
+  </si>
+  <si>
+    <t>DOWN(다운)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거위나 오리의 단열성 깃털. 주로 거위를 도살하여 얻거나 잔혹하게 착취한 것이다.
+베게나 퀼트, 파카, 슬리핑 백에 보온용으로 사용된다.
+춥고 습기찬 날씨에는 압축되기 때문에 좋지 않다.
+대체물: many polyester and man-made substitutes, superior in many ways; Kapok (silky fibers from the seeds of some tropical trees); 아스클레피아스(milkweed seed pod fibers).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dried Buttermilk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dried Egg Yolk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUODENUM SUBSTANCES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>From the digestive tracts of cattle and swine. In some vitamins and medicines. Alternatives: vegetarian vitamins, synthetics.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E542</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edible Bone Phosphate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Albumen.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGG ALBUMEN/ALBUMIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egg Oil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGG PROTEIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egg Powder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In shampoos, skin preparations, etc. Alternatives: plant proteins.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egg Yolk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달걀 노른자위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egg Yolk Extract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELASTIN(엘라스틴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Found in the neck ligaments and aorta of bovine. Similar to collagen. Can't affect the skin's own elasticity. Alternatives: synthetics, proteins from plant tissues.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embryo Extract(배아추출액)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERGISTEROL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Calciferool.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERGOCALCIFEROL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESTRADIOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estrone. Estrogen(에스트로겐)
+소의 난소 및 임신한 암말의 소변에서 얻는다. 의약품으로 간주한다.
+어린이에게 사용했을 경우 시스템상의 해로운 영향을 줄 수 있다.
+생식상의 문제, 피임약 등에 사용한다. 크림 및 로션에도 쓰인다.
+대체물 : 구강 피임제가 시중에 나와있는데 주로 인조 스테로이드로 만든 것이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estradiol Benzoate</t>
+  </si>
+  <si>
+    <t>-ESTROGEN: See Estradiol.</t>
+  </si>
+  <si>
+    <t>-ESTRONE: See Estradiol.</t>
+  </si>
+  <si>
+    <t>Ethyl Arachidonate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethyl Ester of Hydrolyzed Animal Protein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethyl Morrhuate - Lipineate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethylene Dehydrogenated Tallowamide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FATTY ACIDS(지방산)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can be one or any mixture of liquid and solid acids, caprylic, myristic, oleic, palmitic, stearic , behenic. Used in bubble baths, lipsticks, soaps, detergents, cosmetics, shampoos, foods. Alternatives: vegetable-derived acids, soy lecithin, safflower oil, bitter almond oil, sunflower oil, etc.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F-EATHERS(깃털)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Down. Keratin. 대개는 새들을 착취하거나 도살하여 얻는다. 장식품에 쓰이고 샴푸에 갈아 넣기도 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-FISH LIVER(S): See Cod Liver Oil.</t>
+  </si>
+  <si>
+    <t>-FISH LIVER OIL: See Cod Liver Oil.</t>
+  </si>
+  <si>
+    <t>Fish Glycerides</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FISH OIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marine Oil. From fish or marine mammals (including porpoises). Used in soap making, candles, lubricants, paints and as a shortening (especially in some argarines). US regulations currently prohibit the use of ingredients derived from marine mammals.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FISH SCALES(생선 비늘)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반짝이는 화장품에 사용한다. 생선 비늘로 가득 찬 쓰레기통을 제조업자들이 사간다.
+대체물:운보, 레이온</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLETAN OIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare ingredient derived from fish liver which includes lecithin, Vitamin A and Vitamin D.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hopefully speaks for itself.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GELATIN(젤라틴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sometimes Gel. Protein obtained by boiling skin, tendons, ligaments or bones with water, from cattle and hogs. Used in shampoos, face masks, other cosmetics. Used as a thickener for fruit gelatins and puddings (Jello-brand desserts). In candies, marshmallows, cakes, ice cream, yogurts. On photographic film as a coating and in vitamins as capsules. Sometimes used to assist in "clearing" wines. Alternatives: algae and seaweed (carrageen/ Irish Moss, algin, agar-agar, kelp), Gelozone, used in jellies, plastics, medicines, pectin from fruit, dextrins, locust bean gum and cotton gum. Marshmallows were originally made from the root of the marshmallow plant.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Gelatin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glucosamine(글루코사민)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게, 가재, 새우의 껍질로 만든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glucuronic Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLUTAMIC ACID(글루타민산)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An amino acid found widely in plant and animal tissue.
+동식물의 조직에서 널리 발견되는 단백산.
+음식의 씨즈닝, 화장품의 산화방부제로 쓰임.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLYCERIDES: See Diglycerides.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLYCERIN(글리세린)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glycerine. Glycerol. Polyglycerol. Polytethylene Glycol (PEG).
+비누 제작의 부산물.(주로 동물성 지방) 화장품, 식품, 구강청결제,
+치약, 비누, 연고, 약품, 윤활제, 자동차 변속기 및 브레이크용 유체, 플라스틱 등에 사용.
+Alternatives: vegetable or vegetable glycerin, a by-product of vegetable oil soap; derivatives of seaweed, petroleum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLYCERINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Glycerin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLYCEROL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Diglycerides.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glyceryl Lanolate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glycogen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOOSE INSULATING FEATHERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Down.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUANINE(구아닌)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pearl Essence. Obtained from scales of fish. Constituent of ribonucleic acid and deoxyribonucleic acid and is found in all animal and plant tissues. In shampoos, nail polish, other cosmetics. Alternatives: leguminous plants, synthetics.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heptylundecanol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIDE GLUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same as gelatin but of a cruder, more impure form. Alternatives: dextrins and synthetic petrochemical-based adhesives.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HONEY(벌꿀)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌꿀은 벌을 위한 음식으로 당분이며 사람에게는 지나치게 농도가 진하다.
+사람에게 해로운 독소를 포함하고 알러지를 유발할 수 있다.
+화장품, 음식에 들어있다.
+Alternatives: Maple syrup, date sugar, syrups made from grains.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HORSE HAIR AND OTHER ANIMAL HAIR(말총 및 기타 동물의 털)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alternatives: vegetable and man-made fibers.
+말총, 다른 동물성 털: 이불, 메트리스, 붓, 가구 등에 사용.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human Placental Protein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human Umbilical Extract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyaluronic Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Hydrogenated Ditallow Amine</t>
+  </si>
+  <si>
+    <t>-Hydrogenated Honey</t>
+  </si>
+  <si>
+    <t>-Hydrogenated Laneth-5, -20, -25</t>
+  </si>
+  <si>
+    <t>-Hydrogenated Lanolin</t>
+  </si>
+  <si>
+    <t>-Hydrogenated Lanolin Alcohol</t>
+  </si>
+  <si>
+    <t>-Hydrogenated Lard Glyceride</t>
+  </si>
+  <si>
+    <t>-Hydrogenated Shark-Liver Oil</t>
+  </si>
+  <si>
+    <t>-Hydrogenated Tallow Acid</t>
+  </si>
+  <si>
+    <t>-Hydrogenated Tallow Betaine</t>
+  </si>
+  <si>
+    <t>-Hydrogenated Tallow Glyceride</t>
+  </si>
+  <si>
+    <t>Hydrogenated Animal Glyceride</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Hydrolyzed Animal Keratin</t>
+  </si>
+  <si>
+    <t>Hydrolyzed Animal Elastin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HYDROLYZED ANIMAL PROTEIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In cosmetics, especially shampoos and hair treatments. Alternatives: soy protein, other vegetable proteins, amla oil (from an Indian tree's fruit).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydrolyzed Animal Protein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydrolyzed Casein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydrolyzed Elastin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydrlyzed Human Placental Protein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydrolyzed Keratin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HYDROLYZED MILK PROTEIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Milk Protein. From cows' milk. In cosmetics, shampoos, moisturizers, conditioners, etc. Alteratives: soy protein, other plant proteins.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydrolyzed Silk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydroxylated Lanolin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMIDAZOLIDINYL UREA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Carbamide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSULIN(인슐린)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지나 소의 췌장에서 얻은 것. 당뇨병 치료에 수도 없이 사용됨.
+Alternatives: synthetics, human insulin grown in a lab, diet when possible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISINGLASS(부레풀)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A form of gelatin prepared from the internal membranes of fish bladders. In foods and sometimes used in "clearing" wines and beers. Alternatives: bentonite clay, "Japanese isinglass". Isinglass is also a mineral, mica, used in cosmetics.
+물고기의 부레로 만듦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isobutylated Lanolin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isopropyl Lanolate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISOPROPYL MYRISTATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myristate Acid. Myristyl. In most animal and vegetable fats. In butter acids. Used in shampoos, creams, cosmetics, food flavorings. Alternatives: nut butters, oil of lovage, coconut oil, extract from seed kernels of nutmeg, etc.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isopropyl Tallowatelsopropyl Lanolate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isostearic Hydrolyzed Animal Protein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isostearoyl Hydrolyzed Animal Protein</t>
+  </si>
+  <si>
+    <t>KERATIN(케라틴)</t>
+  </si>
+  <si>
+    <t>From the ground-up horns, hoofs, feathers, quills and hair of various creatures. In hair rinses, shampoos, permanent wave solutions. Alternatives: almond oil, soy protein, amla oil (from an Indian tree's fruit), rosemary, nettle. Rosemary and nettle give body and strand strength to hair.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keratin Amino Acids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L-FORM</t>
+  </si>
+  <si>
+    <t>See Cysteine.</t>
+  </si>
+  <si>
+    <t>L-LACTIC ACID</t>
+  </si>
+  <si>
+    <t>actic Acid (a by-product of the slaughterhouse). Produced by the fermentation of lactose when milk sours or from sucrose and some other carbohydrates by the action of certain microorganisms. Can be found in blood and muscle tissue. In skin fresheners, adhesives, plasticizers, pharmaceuticals, sour milk, beer, sauerkraut, pickles and other food products made by bacterial fermentation. Used in foods and beverages as an acidulant, flavoring and preservative.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LACTIC ACID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See L-Lactic Acid.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lactic Yeasts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LACTOSE(락토즈)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Milk Sugar. Milk of Mammals. In eye lotions, foods, tablets, cosmetics, baked goods, medicines, shampoos. Alternatives: plant milk sugars.</t>
+  </si>
+  <si>
+    <t>Laneth-5 through -40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laneth-9 and -10 Acetate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANOLIN(라놀린)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lanolin Acid. Lanolin Alcohols (Sterol, Triterpene Alcohol, Aliphatic Alcohol). Wool Fat. Laneth-5, -10, etc. Lanogene. Lanosterol. Isopropyl Lanolate.
+양모의 지방. 양의 지방샘에서 분비되는 물질로 양모에서 추출한다.
+피부관리용품, 화장품과 약품에 쓰인다. 알러지나 발진을 일으킬 수 있다.
+Vegetable sources are thought to be better moisturizers; lanolin is too greasy, waterproof and sealing - skin can't breathe.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANOLIN ACID: See Lanolin.</t>
+  </si>
+  <si>
+    <t>-LANOLIN ALCOHOLS: See Lanolin.</t>
+  </si>
+  <si>
+    <t>-Lanolin Linoleate</t>
+  </si>
+  <si>
+    <t>-Lanolin Oil</t>
+  </si>
+  <si>
+    <t>-Lanolin Ricinoleate</t>
+  </si>
+  <si>
+    <t>-Lanolin Wax</t>
+  </si>
+  <si>
+    <t>-Lanoinamide DEA</t>
+  </si>
+  <si>
+    <t>-LANOSTEROL: See Lanolin.</t>
+  </si>
+  <si>
+    <t>LARD(라드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지의 복부 지방. 면도크림, 비누, 화장품, 베이킹 상품, 식품 등에 사용. 소화되기 어렵다.
+Hard to digest. Alternatives: vegetable fats or oils.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lard Glyceride</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lauroyl hydrolyzed Animal Protein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEATHER(가죽)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suede, Calfskin. Sheepskin. Alligator. Kid. Euphemism for animal skin. The use of and sale of it subsidizes the meat industry. Used to make wallets, handbags, belts, furniture and car upholstery, shoes, coats, etc. Alternatives: natural materials such as cotton and canvas. Also man-made materials such as nylon and vinyl.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LECITHIN(레시틴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Choline Bitartrate.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leucine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L-Lactic Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINOLEIC ACID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An essential fatty acid. In cosmetics, vitamins.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIPASE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enzyme from the stomachs and tongue glands of calves, kids and lambs. Probably in some vitamins. Alternatives: vegetable enzymes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIPOIDS/ LIPIDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fat and fat-like substances which occur in animals and plants.
+Liver Extract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUNA SPONGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sea Sponge. A plant-like animal that lives in the sea and is becoming scarce. Alternatives: man-made sponges.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lysine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magnesium Lanolate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magnesium Tallowate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mammarian Extract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MARINE OIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Fish Oil.</t>
+  </si>
+  <si>
+    <t>Mayonnaise</t>
+  </si>
+  <si>
+    <t>MEA-Hydrolyzed Animal Protein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menhaden Oil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pogy Oil; Mossbunker Oil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>METHIONINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An essential amino acid found in various proteins. Used as a texturizer in creams.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MILK OF MAMMALS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If this isn't already obvious, see Lactose.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MILK PROTEIN(유단백)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydrolyzed Milk Protein. From cows' milk. In cosmetics, shampoos, moisturizers, conditioners, etc. Alteratives: soy protein, other plant proteins.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MILK SUGAR(유당)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Lactose.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MINK OIL(밍크 오일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밍크로부터 얻은 것.
+In cosmetics, creams, etc. Alternatives: vegetable oils and emollients (ie. avocado, almond oil, jojoba).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minkamidopropyl Diethylamine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MONOGLYCERIDES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muscle Extract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUSK(머스크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obtained from the genitals of the Northern Asian small hornless deer. In perfumes and food flavorings. Can cause allergic reactions. Alternatives: labdanum (oil which comes from various rockrose shrubs) - no known toxicity. Other plants have a musky scent also.
+북아시아의 작은 뿔이 없는 사슴의 생식기에서 얻은 것. 향수나 음식의 조미료로 사용.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Musk Ambrette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYRISTATE ACID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Isopropyl Myristate.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYRISTYL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myristoyl Hydrolyzed Animal Protein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NATURAL FLAVOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Natural Flavoring.
+천연향신료 역시 동물성일 수도 있다.
+Natural Source. Can mean animal, vegetable or mineral source. Most often in the health food industry, it means an animal source, especially in cosmetics (ie. animal elastin, animal glands, fat, protein, oil). Be wary of this term. Find out exact source.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NATURAL SOURCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Natural Flavor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUCLEIC ACID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the nucleus of all living cells. Used in cosmetics, shampoos, conditioners, vitamins, supplements, etc. Alternatives: plant sources.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCTYL DODECANOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mixture of solid waxy alcohols. Primarily from stearyl alcohol.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Olestra. A man-made fat substitude that contains fatty acids. Originally planned to be marketed as a drug. Depletes body of, and prevents absorbtion of vitamins. In some potato chips and other fried foods. Alternatives: plant sources.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oleamidopropyl Dimethylamine Hydrolyzed Animal Protein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLEIC ACID(올레산)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oleth-2, -3, -20, etc. Oleyl Alcohol. Oleamine. Oleyl Betaine. Obtained from various animal and vegetable fats and oils, Is usually obtained commercially from inedible tallow, sometimes synthesized from petroleum. In foods, soft soaps, bar soaps, permanent wave solutions, shampoos, creams, nail polish, lipsticks, liquid makeups, many other skin preparations. Alternatives: coconut oil; see alternatives for animal oils and Fats.
+소기름이나 석유에서 얻는다. 식품. 소프트 솝, 비누, 퍼머용액, 샴푸, 크림, 메니큐어, 립스틱, 액체 화장품, 피부용품 등에 사용.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oleostearine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oleoyl Hydrolyzed Animal Protein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLESTRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Olean.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">OLETH-2, -3-20, 25, 50 ETC./ OLEYL ALCOHOL/ OLEAMINE/ OLEYL BETAINE: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Oleic Acid.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oleyl Betatine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLYL ALCOHOL/ BETAINE: See Oleic Acid.</t>
+  </si>
+  <si>
+    <t>-Oleyl Arachidate</t>
+  </si>
+  <si>
+    <t>-Oleyl Imidazoline</t>
+  </si>
+  <si>
+    <t>-Oleyl Lanolate</t>
+  </si>
+  <si>
+    <t>Ovarian Extract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OX BILE: Oxgall. From castrated bovines. In creams.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OXGALL: See Ox Bile.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PALMITATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palmitic Acid. Fatty Acids. From fats, oils, mixed with stearic acid. Occurs in many animal fats and plant oils. In shampoos, shaving soaps, creams. Alternatives: palm oil and other vegetable source.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PALMITIC ACID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Palmitate.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palmitoyl Hydrolyzed Animal Protein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palmitoyl Hydrolyzed Milk Protein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PANTHENOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Depanthenol.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEARL ESSENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Guanine.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEG-28 Glyceryl Tallowate</t>
+  </si>
+  <si>
+    <t>-PEG-8 Hydrogenated Fish Glycerides</t>
+  </si>
+  <si>
+    <t>-PEG-5 through -70 Hydrogenated Lanolin</t>
+  </si>
+  <si>
+    <t>-PEG-13 Hydrogenated Tallow Amide</t>
+  </si>
+  <si>
+    <t>-PEG-5 to -20 Lanolate</t>
+  </si>
+  <si>
+    <t>-PEG-5 through -100 Lanolin</t>
+  </si>
+  <si>
+    <t>-PEG-75 Lanolin Oil and Wax</t>
+  </si>
+  <si>
+    <t>-PEG-2 Milk Solids</t>
+  </si>
+  <si>
+    <t>-PEG-6, -8, -20 Sorbitan Beeswax</t>
+  </si>
+  <si>
+    <t>-PEG-40, -75, or -80 Sorbitan Lanolate</t>
+  </si>
+  <si>
+    <t>-PEG-3, -10, or -15 Tallow Aminopropylamine</t>
+  </si>
+  <si>
+    <t>-PEG-15 Tallow Polyamine</t>
+  </si>
+  <si>
+    <t>-PEG-20 Tallowate</t>
+  </si>
+  <si>
+    <t>Pentahydrosqualene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEPSIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obtained from the stomachs of hogs. A clotting agent. In some cheeses and vitamins. Same uses and alternatives as rennet.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perhydrosqualene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pigskin Extract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLACENTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Afterbirth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLACENTA POLYPEPTIDES PROTEIN: See Afterbirth.</t>
+  </si>
+  <si>
+    <t>-Placental Enzymes, Lipids and Proteins</t>
+  </si>
+  <si>
+    <t>-Placental Extract</t>
+  </si>
+  <si>
+    <t>-Placental Protein</t>
+  </si>
+  <si>
+    <t>POLYGLYCEROL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Glycerin.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polyglyceryl-2 Lanolin Alcohol Ether</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POLYPEPTIDES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POLYPEPTIDES PROTEIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POLYSORBATES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Derivatives of fatty acids. In cosmetics, foods.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POLYTETYLENE GLYCEROL/Glycol/PEG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potassium Caseinate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potassium Tallowate</t>
+  </si>
+  <si>
+    <t>Potassium Undecylenoyl Hydrolyzed Animal Protein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPG-12-PEG-50 Lanolin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPG-2, -5, -10. -20, -30 Lanolin Alcohol Ethers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPG-30 Lanolin Ether</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pregnenolone Acetate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRISTANE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obtained from the liver oil of sharks and from whale ambergris. See Squalene. Used as a lubricant and anticorrosive agent. In cosmetics. (US regulations currently prohibit the use of ingredients derived from marine mammals.) Alternatives: plant oils, synthetics.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROGESTERONE(프로게스테론)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴용 크림에 사용되는 스테로이드계 호르몬.
+Can have adverse systemic effects. Alternatives: synthetics.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROPOLIS(프로폴리스)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿀벌이 여러 식물에서 수집한 수지질의 물질로 벌집을 짓는 데 쓰인다.
+치약, 샴푸, 탈취제, 보충제 등에 사용.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROVITAMIN A(프로비타민 A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROVITAMIN B5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purcelline Oil Syn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUATERNIUM 27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tallow. Stearamide. Stearate. Stearic Acid. Stearin. Fat from cows, sheep, etc. (could be dogs and cats from shelters). Most often refers to a fatty substance taken from the stomachs of pigs. Can be harsh, irritating. Used in cosmetics, soaps, lubricants, candles, hairsprays, conditioners, deodorants, creams. Alternatives: can be found in many vegetable fats (ie. coconut).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENNET(런넷)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rennin. 젖을 응고시키는 효소로 소의 위에서 얻는다. 치즈등 유제품의 응고에 사용.
+Alternatives: microbial coagulating agents, bacteria culture, lemon juice.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENNIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Rennet.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RETINOL(레티놀)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Acetate.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIBONUCLEIC ACID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNA/DNA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROYAL JELLY(로얄젤리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군체의 유충과 여왕벌의 유충을 먹여 살리는 일벌의 목에 있는 분비선에서 나오는 분비물. Alternatives: aloe vera, cornfrey, other plant derivatives.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SABLE BRUSHES(담비털 브러쉬)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담비의 모피에서 얻는다. 화장솔에 쓰인다.
+Alternatives: synthetic furs and fibers.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saccharide Hydrolysate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saccharide Isomerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEA SPONGE(해면)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Luna Sponge.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEA TURTLE OIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turtle Oil. From the muscles and genitals of giant sea turtles. In soaps, skin creams, nail creams, other cosmetics. Alternatives: Vegetable emollients. (See alternatives for animal oils and fats.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serum Albumin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serum Proteins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shark-Liver Oil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Leather.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHEEPSKIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHELLAC(셀락)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>껍질이 있는 암컷 곤충의 몸에서 얻음.
+바니쉬, 목재나 회벽의 코팅제, 전기 절연제, 씰링 왁스에 사용.
+초콜렛 등 광택이나 피막제 등으로 사용됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SILK(실크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누에고치로 만드는 것. 실크를 얻기 위해 누에가 고치 안에 있는 상태로 끓이거나 가열한다.
+옷과 실크스크린(판화기법)에 쓰인다.
+대체물: 밀크위드(milkweed:유액이 나오는 식물) 씨 꼬투리 섬유, 나일론, 판야나무나 케이폭 나무의 단섬유, 레이온, 인조실크.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silk Amino Acids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SILK POWDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obtained from the secretion of the silkworm. Used as a coloring agent in face powders, soaps, etc. Causes severe allergic reactions; systemic reactions if inhaled or ingested.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNAILS(달팽이류)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crushed. In some cosmetics.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sodium Caseinate(카제인 나트륨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sodium Chondroitin Sulfate</t>
+  </si>
+  <si>
+    <t>-Sodium Coco-Hydrolyzed Animal Protein</t>
+  </si>
+  <si>
+    <t>-Sodium Hydrogenated Tallow Glutamate</t>
+  </si>
+  <si>
+    <t>-Sodiurn Laneth Sulfate</t>
+  </si>
+  <si>
+    <t>-Sodium Methyl Oleoyl Taurate</t>
+  </si>
+  <si>
+    <t>-Sodium n-Mythyl-n-Oleyl Taurtate</t>
+  </si>
+  <si>
+    <t>-Sodium Soya Hydrolyzed Animal Protein</t>
+  </si>
+  <si>
+    <t>-Sodium Tallow Sulfate</t>
+  </si>
+  <si>
+    <t>-Sodium Tallowate</t>
+  </si>
+  <si>
+    <t>-Sodium / TEA-Lauroyl Hydrolyzed Animal Protein</t>
+  </si>
+  <si>
+    <t>-Sodium / TEA-Undecylenoyl Hydrolyzed Animal Protein</t>
+  </si>
+  <si>
+    <t>-Sodium Undecylenate</t>
+  </si>
+  <si>
+    <t>Soluble (Animal) Collagen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soya Hydroxyethyl Imidazoline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPERMACETI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cetyl Palmitate. Sperm Oil. Waxy oil derived from the sperm whale's head or from dolphins. In skin creams, ointments, shampoos, candles, many margarines. Used in the leather industry. May become rancid and cause irritations. (US regulations currently prohibit the use of ingredients derived from marine mammals.) Alternatives: Synthetic spermaceti, jojobas oil and other vegetable emollients.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPERM OIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Spermaceti.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spleen Extract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQUALANE(스쿠알란)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Squalene. Obtained from shark liver oil. Lubricant and perfume fixative. Alternatives: synthetics.
+상어 간의 오일에서 얻음. 윤활제 및 향수 고착제에 사용.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQUALENE(스쿠알렌)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obtained from shark liver oil or vegetable oil. An emollient from a "natural source". A precursor of cholesterol in biosynthesis. In cosmetics, moisturizers, hair dyes. Alternatives: vegetable emollients (olive oil, wheat germ oil, rice bran oil, etc.).
+상어 간 오일이나 식물성 오일에서 얻음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEARAMIDE/ STEARATE/ STEARIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Quaternium 27.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEARIC ACID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Quaterniun 27.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEARYL ALCOHOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stenol. A mixture of solid alcohols; can be prepared from sperm whale oil. In medicines, creams, rinses, shampoos, etc. (US regulations currently prohibit the use of ingredients derived from marine mammals.) Alternatives: plant tissues, synthetics.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STENOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Stearyl Alcohol.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEROID(스테로이드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sterol. From various animal glands or from plant tissues. Steroids include sterols. Sterols are alcohols from animals or plants (ie. cholesterol). Used in hormone preparations. In creams, lotions, hair conditioners, fragrances, etc. Alternatives: plant tissues, synthetics. 동물의 땀샘이나 식물의 조직에서 얻음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEROL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Steroid.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUEDE(스웨드, 세무)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TALLOW(쇠기름)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tallowate. Tallow Fatty Alcohol. Stearic Acid. Rendered beef or sheep fat. May cause eczema and blackheads. In wax paper, crayons, margarines, paints, rubber, lubricants, candles, soaps, shampoos, lipsticks, shaving creams, other cosmetics. Alternatives: vegetable tallow (animal tallow usually used commercially), Japan tallow, paraffin, ceresin.(See alternatives for Beeswax.) 소와 양의 지방에서 얻음. 기름종이, 크레용, 마가린, 페인트, 고무, 윤활제, 양초, 비누, 샴푸, 립스틱, 면도크림, 기타 화장품에 사용.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Tallow Amide</t>
+  </si>
+  <si>
+    <t>-Tallow Amidopropylamine Oxide</t>
+  </si>
+  <si>
+    <t>-Tallow Amine</t>
+  </si>
+  <si>
+    <t>-Tallow Amine Oxide</t>
+  </si>
+  <si>
+    <t>-Tallow Fatty Alcohol</t>
+  </si>
+  <si>
+    <t>-Tallow Glycerides</t>
+  </si>
+  <si>
+    <t>-Tallow Hydroxyethal Imidazoline</t>
+  </si>
+  <si>
+    <t>-Tallow Imidazoline</t>
+  </si>
+  <si>
+    <t>-TALLOWATE: See Tallow.</t>
+  </si>
+  <si>
+    <t>-Tallowmide DEA and MEA</t>
+  </si>
+  <si>
+    <t>-Tallowmidopropyl Hydroxysultaine</t>
+  </si>
+  <si>
+    <t>-Tallowminopropylamine</t>
+  </si>
+  <si>
+    <t>-Tallowmphoacete</t>
+  </si>
+  <si>
+    <t>-Talloweth-6</t>
+  </si>
+  <si>
+    <t>-TALLOW FATTY ALCOHOL: See Tallow.</t>
+  </si>
+  <si>
+    <t>-Tallow Trimonium Chloride - Tallow</t>
+  </si>
+  <si>
+    <t>Tallow Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taurine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(타우린, 동물의 쓸개즙 등에 분포함. 문어와 오징어 등에도 있음)
+is found in the bile of mammals. It can be synthesized in a lab, but in doing so is encredibly harsh on the environment.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tea-Abietoyl Hydrolyzed Animal Protein</t>
+  </si>
+  <si>
+    <t>-Tea-Coco Hydrolyzed Animal Protein</t>
+  </si>
+  <si>
+    <t>-Tea-Lauroyl Animal Collagen Amino Acids</t>
+  </si>
+  <si>
+    <t>-Tea-Lauroyl Animal Keratin Amino Acids</t>
+  </si>
+  <si>
+    <t>-Tea-Myristol Hydrolyzed Animal Protein</t>
+  </si>
+  <si>
+    <t>-Tea-Undecylenoyl Hydrolyzed Animal Protein</t>
+  </si>
+  <si>
+    <t>-Testicular Extract</t>
+  </si>
+  <si>
+    <t>-Threonine: natural amino acids, Found in eggs, milk, gelatin...</t>
+  </si>
+  <si>
+    <t>-Triethonium Hydrolyzed Animal Protein Ethosulfate</t>
+  </si>
+  <si>
+    <t>-Trilaneth-4 Phosphate</t>
+  </si>
+  <si>
+    <t>-TURTLE OIL: See Sea Turtle Oil.</t>
+  </si>
+  <si>
+    <t>UREA(우레아)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오줌. 단백질 대사에서 나오는 폐기물질. 간에서 생성되어 신장을 통해 배출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URIC ACID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carbamide. The end product of urine breakdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VITAMIN A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retinol. Acetate and Palmitate. (See Palmitic Acid.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물성 성분(A-Z)/veganwolf - http://www.veganwolf.com/animal_ingredients.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VITAMIN B COMPLEX FACTOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Provitamin B5. Depanthenol. Panthenol.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VITAMIN B FACTOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Biotin.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VITAMIN B12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usually from an animal source. Some vegetarian B12 fortified yeasts and analogs available. Some vegetarian B12 vitamins are in a stomach base. Plant algae discovered containing B12, now in supplement form (spirulina). Also, B12 is produced in a healthy body.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VITAMIN D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Calciferool.
+비타민 D3(vitamin D3)는 지용성 비타민의 한 종류로서 체내 칼슘농도를 조절하며 내장에서 칼슘이동에 작용하여 혈중칼슘농도를 조절한다.
+구루병의 예방과 치료에 효과가 있으며 동물체내의 7-디하이드로 콜레스테롤(7-dehydrocholesterol)이 자외선 노출로 활성화되어 비타민 D3, 즉 콜레칼시페롤(cholecalciferol)이 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VITAMIN H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTHER VITAMINS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Choline, Biotin, Inositol, Riboflavin, etc.). Many other vitamins can come from animal sources. Alternatives: vegetarian vitamins, plant and mineral sources.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHEY(유장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>From milk. Usually in cakes, cookies, candies, cheese. Alternatives: soybean whey.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WOOL(울, 양모)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양으로 부터 얻은 것. 미국산은 도살된 양으로부터 얻은 것이다.
+옷을 만드는 재료로 쓰이고 혼합되기도 한다.
+램스 양과 울제품을 위한 양들은 고기와 양털을 위해 도살된다.
+양들은 음식과 물을 공급받지 못한 채 극도로 덥거나 추운 조건에서 이송되며, 그 과정에서 다리가 부러지고 눈에 상처를 입기도 한다.
+하급(생산성이 없는) 양들은 죽임을 당하고 양털깎는 과정 역시 양에 상처를 입힌다.
+양들은 폭력적으로 다루어지며 양털을 깎는 작업은 거칠다. 피부는 잘려나간다.
+'천연' 양모를 얻기위한 과정에 엄청난 에너지와 자원이 소모된다.
+(양을 돌보고, 먹이고, 기르고, 털을 깎고, 운반, 도살) 많은 사람들이 양모에 알러지가 있다.
+대체물: 면화, 면 플란넬, 린넨, 인조섬유.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WOOL FAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Lanol.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wool Wax Alcohols</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yogurt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zinc Hydrolyzed Animal Protein</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -29538,372 +31633,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8B862E-BE06-4B91-8E46-372DBBCED14D}">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="18.25" customWidth="1"/>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
-        <v>5705</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>5706</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>5707</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5708</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
-        <v>5709</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>5710</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
-        <v>5711</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5712</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
-        <v>5713</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5714</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
-        <v>5715</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5716</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
-        <v>5717</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5718</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="306" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
-        <v>5719</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5720</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="s">
-        <v>5711</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>5721</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5722</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5723</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5724</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>5725</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5726</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5727</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>5728</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5729</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5730</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>5731</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3219</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5732</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>5733</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5734</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5735</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>5411</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5736</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5737</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>5738</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5739</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5740</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>5741</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5742</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>5743</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>5744</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>5745</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5746</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="61.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
-        <v>5401</v>
-      </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>5367</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="85" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>5369</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5370</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>5371</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
-        <v>5374</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5373</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
-        <v>5375</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5388</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
-        <v>5376</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5389</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
-        <v>5377</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>5390</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
-        <v>5378</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>5391</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="51" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
-        <v>5379</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>5392</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
-        <v>5380</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>5393</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
-        <v>5381</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>5394</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="51" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
-        <v>5382</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>5395</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
-        <v>5383</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>5396</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
-        <v>5384</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>5397</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="4" t="s">
-        <v>5385</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>5398</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="4" t="s">
-        <v>5386</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>5399</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="A18" s="4" t="s">
-        <v>5387</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F943"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -48667,11 +50400,2948 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE49423A-0532-41AD-8F9C-A63ABC9D91BD}">
+  <dimension ref="A1:B400"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B402" sqref="B402"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>6260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="170" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>5676</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="51" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>5670</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="119" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5672</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5673</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="85" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>5675</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5677</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>5679</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5680</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>5682</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>5684</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5685</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="51" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>5686</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>5688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>5689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>5690</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>5691</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>5693</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>5695</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>5696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>5697</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>5699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>5700</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>5702</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>5746</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5747</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>5748</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5749</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>5751</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>5752</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5753</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="68" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>5754</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5755</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="119" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>5756</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5757</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="51" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>5758</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5759</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>5761</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5762</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="51" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>5763</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5764</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>5765</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>5766</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="51" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>5767</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>5768</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>5769</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>5770</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="51" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>5771</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>5772</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>5773</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>5774</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>5775</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>5776</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>5777</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5778</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>5779</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="136" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>5780</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>5781</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="51" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>5782</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>5783</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>5784</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5785</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>5786</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5787</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>5788</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5789</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>5790</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>5791</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>5792</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>5793</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>5794</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>5795</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5796</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="85" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>5797</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>5798</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="136" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>5799</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>5801</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5802</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>5803</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5804</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>5805</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5806</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>5807</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5808</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>5809</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5810</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>5811</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5812</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>5813</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5814</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>5815</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>5816</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>5817</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="68" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>5818</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>5819</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>5820</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5821</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>5822</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5821</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>5823</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5824</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="68" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>5825</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>5826</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>5827</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5828</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>5829</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5830</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>5831</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5832</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="51" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>5833</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>5834</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>5835</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5802</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>5836</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5837</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>5838</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>5839</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5840</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>5841</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5842</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>5843</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5844</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="51" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>5845</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>5846</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>5847</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5848</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>5849</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>5850</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5851</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>5852</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5853</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>5854</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5855</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>5856</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>5857</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>5858</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>5859</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="68" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>5860</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>5861</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>5862</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>5863</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>5864</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>5865</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>5866</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>5867</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>5868</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>5869</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>5870</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>5872</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>5873</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>5874</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>5875</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="119" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>5876</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>5878</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>5879</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>5880</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5881</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>5882</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5802</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>5883</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5884</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>5885</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="A114" s="1" t="s">
+        <v>5887</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5886</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>5888</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>5889</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5891</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>5892</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5893</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>5894</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>5895</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5896</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>5897</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>5898</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5899</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>5900</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5899</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="119" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>5901</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>5902</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>5903</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>5904</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>5905</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>5906</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>5907</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>5908</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>5909</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>5910</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5911</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>5912</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5913</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>5916</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>5914</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>5915</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>5917</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5918</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="51" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>5919</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>5921</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5922</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>5923</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5924</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>5925</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5926</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>5927</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5928</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>5929</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>5931</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="51" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>5932</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>5933</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>5934</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="102" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>5935</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>5936</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>5937</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5938</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>5939</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>5941</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>5942</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>5943</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5944</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>5945</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5946</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>5947</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>5948</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5949</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="85" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>5950</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>5951</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>5952</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>5953</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>5954</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>5955</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>5956</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>5967</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>5957</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>5959</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>5960</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>5961</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>5962</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>5963</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>5964</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>5965</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>5966</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>5969</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>5968</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>5970</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5971</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>5972</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>5973</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>5974</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
+        <v>5975</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
+        <v>5976</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
+        <v>5977</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5978</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>5979</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
+        <v>5980</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
+        <v>5981</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5982</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="51" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
+        <v>5983</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>5984</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="85" x14ac:dyDescent="0.45">
+      <c r="A185" t="s">
+        <v>5985</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>5986</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>5987</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
+        <v>5988</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
+        <v>5989</v>
+      </c>
+      <c r="B188" t="s">
+        <v>5990</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A189" t="s">
+        <v>5991</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
+        <v>5992</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A191" t="s">
+        <v>5993</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A192" t="s">
+        <v>5994</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5995</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A193" t="s">
+        <v>5996</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A194" t="s">
+        <v>5997</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5998</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A195" t="s">
+        <v>5999</v>
+      </c>
+      <c r="B195" t="s">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A196" t="s">
+        <v>6001</v>
+      </c>
+      <c r="B196" t="s">
+        <v>6002</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
+        <v>6004</v>
+      </c>
+      <c r="B198" t="s">
+        <v>6005</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
+        <v>6006</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
+        <v>6007</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="136" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
+        <v>6008</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>6009</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A202" t="s">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A203" t="s">
+        <v>6011</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>6012</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A205" t="s">
+        <v>6013</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A206" t="s">
+        <v>6014</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A207" t="s">
+        <v>6015</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A208" t="s">
+        <v>6016</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A209" t="s">
+        <v>6017</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="51" x14ac:dyDescent="0.45">
+      <c r="A210" t="s">
+        <v>6018</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>6019</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A211" t="s">
+        <v>6020</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A212" t="s">
+        <v>6021</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A213" t="s">
+        <v>6022</v>
+      </c>
+      <c r="B213" t="s">
+        <v>6023</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A214" t="s">
+        <v>6024</v>
+      </c>
+      <c r="B214" t="s">
+        <v>6025</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A215" t="s">
+        <v>6026</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A216" t="s">
+        <v>6027</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A217" t="s">
+        <v>6028</v>
+      </c>
+      <c r="B217" t="s">
+        <v>6029</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A218" t="s">
+        <v>6030</v>
+      </c>
+      <c r="B218" t="s">
+        <v>6031</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="A219" t="s">
+        <v>6032</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>6033</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A220" t="s">
+        <v>6034</v>
+      </c>
+      <c r="B220" t="s">
+        <v>6035</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A221" t="s">
+        <v>6036</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A222" t="s">
+        <v>6037</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A223" t="s">
+        <v>6038</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A224" t="s">
+        <v>6039</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A225" t="s">
+        <v>6040</v>
+      </c>
+      <c r="B225" t="s">
+        <v>6041</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
+        <v>6042</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A227" t="s">
+        <v>6043</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A228" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B228" t="s">
+        <v>6045</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A229" t="s">
+        <v>6046</v>
+      </c>
+      <c r="B229" t="s">
+        <v>6047</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
+        <v>6048</v>
+      </c>
+      <c r="B230" t="s">
+        <v>6049</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A231" t="s">
+        <v>6050</v>
+      </c>
+      <c r="B231" t="s">
+        <v>6051</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A232" t="s">
+        <v>6052</v>
+      </c>
+      <c r="B232" t="s">
+        <v>6053</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="51" x14ac:dyDescent="0.45">
+      <c r="A233" t="s">
+        <v>6054</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>6055</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A234" t="s">
+        <v>6056</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A235" t="s">
+        <v>6057</v>
+      </c>
+      <c r="B235" t="s">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A236" t="s">
+        <v>6058</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="119" x14ac:dyDescent="0.45">
+      <c r="A237" t="s">
+        <v>6059</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
+        <v>6061</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A239" t="s">
+        <v>6062</v>
+      </c>
+      <c r="B239" t="s">
+        <v>6063</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A240" t="s">
+        <v>6064</v>
+      </c>
+      <c r="B240" t="s">
+        <v>6063</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A241" t="s">
+        <v>6065</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="102" x14ac:dyDescent="0.45">
+      <c r="A242" t="s">
+        <v>6066</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>6067</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A243" t="s">
+        <v>6068</v>
+      </c>
+      <c r="B243" t="s">
+        <v>6069</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A244" t="s">
+        <v>6070</v>
+      </c>
+      <c r="B244" t="s">
+        <v>6071</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A245" t="s">
+        <v>6072</v>
+      </c>
+      <c r="B245" t="s">
+        <v>6073</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A246" t="s">
+        <v>6074</v>
+      </c>
+      <c r="B246" t="s">
+        <v>6075</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A247" t="s">
+        <v>6076</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="153" x14ac:dyDescent="0.45">
+      <c r="A248" t="s">
+        <v>6077</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>6078</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A249" t="s">
+        <v>6079</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A250" t="s">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A251" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B251" t="s">
+        <v>6082</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A252" t="s">
+        <v>6083</v>
+      </c>
+      <c r="B252" t="s">
+        <v>6084</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A253" t="s">
+        <v>6085</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A254" t="s">
+        <v>6086</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A255" t="s">
+        <v>6087</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A256" t="s">
+        <v>6088</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A257" t="s">
+        <v>6089</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A258" t="s">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A259" t="s">
+        <v>6091</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A260" t="s">
+        <v>6092</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A261" t="s">
+        <v>6093</v>
+      </c>
+      <c r="B261" t="s">
+        <v>6094</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A262" t="s">
+        <v>6095</v>
+      </c>
+      <c r="B262" t="s">
+        <v>6096</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A263" t="s">
+        <v>6097</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A264" t="s">
+        <v>6098</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A265" t="s">
+        <v>6099</v>
+      </c>
+      <c r="B265" t="s">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A266" t="s">
+        <v>6101</v>
+      </c>
+      <c r="B266" t="s">
+        <v>6102</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A267" t="s">
+        <v>6103</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A268" t="s">
+        <v>6104</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A269" t="s">
+        <v>6105</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A270" t="s">
+        <v>6106</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A271" t="s">
+        <v>6107</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A272" t="s">
+        <v>6108</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A273" t="s">
+        <v>6109</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A274" t="s">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A275" t="s">
+        <v>6111</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A276" t="s">
+        <v>6112</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A277" t="s">
+        <v>6113</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A278" t="s">
+        <v>6114</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A279" t="s">
+        <v>6115</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A280" t="s">
+        <v>6116</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A281" t="s">
+        <v>6117</v>
+      </c>
+      <c r="B281" t="s">
+        <v>6118</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A282" t="s">
+        <v>6119</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A283" t="s">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A284" t="s">
+        <v>6121</v>
+      </c>
+      <c r="B284" t="s">
+        <v>6122</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A285" t="s">
+        <v>6123</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A286" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A287" t="s">
+        <v>6125</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A288" t="s">
+        <v>6126</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A289" t="s">
+        <v>6127</v>
+      </c>
+      <c r="B289" t="s">
+        <v>6128</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A290" t="s">
+        <v>6129</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A291" t="s">
+        <v>6130</v>
+      </c>
+      <c r="B291" t="s">
+        <v>5853</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A292" t="s">
+        <v>6131</v>
+      </c>
+      <c r="B292" t="s">
+        <v>6122</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A293" t="s">
+        <v>6132</v>
+      </c>
+      <c r="B293" t="s">
+        <v>6133</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A294" t="s">
+        <v>6134</v>
+      </c>
+      <c r="B294" t="s">
+        <v>6128</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A295" t="s">
+        <v>6135</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A296" t="s">
+        <v>6136</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A297" t="s">
+        <v>6137</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A298" t="s">
+        <v>6138</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A299" t="s">
+        <v>6139</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A300" t="s">
+        <v>6140</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A301" t="s">
+        <v>6141</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A302" t="s">
+        <v>6142</v>
+      </c>
+      <c r="B302" t="s">
+        <v>6143</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="A303" t="s">
+        <v>6144</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>6145</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="51" x14ac:dyDescent="0.45">
+      <c r="A304" t="s">
+        <v>6146</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>6147</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A305" t="s">
+        <v>6148</v>
+      </c>
+      <c r="B305" t="s">
+        <v>5804</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A306" t="s">
+        <v>6149</v>
+      </c>
+      <c r="B306" t="s">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A307" t="s">
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A308" t="s">
+        <v>6151</v>
+      </c>
+      <c r="B308" t="s">
+        <v>6152</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="68" x14ac:dyDescent="0.45">
+      <c r="A309" t="s">
+        <v>6153</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A310" t="s">
+        <v>6155</v>
+      </c>
+      <c r="B310" t="s">
+        <v>6156</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A311" t="s">
+        <v>6157</v>
+      </c>
+      <c r="B311" t="s">
+        <v>6158</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A312" t="s">
+        <v>6159</v>
+      </c>
+      <c r="B312" t="s">
+        <v>5853</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A313" t="s">
+        <v>6160</v>
+      </c>
+      <c r="B313" t="s">
+        <v>5853</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A314" t="s">
+        <v>6161</v>
+      </c>
+      <c r="B314" t="s">
+        <v>6162</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="A315" t="s">
+        <v>6163</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>6164</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A316" t="s">
+        <v>6165</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A317" t="s">
+        <v>6166</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A318" t="s">
+        <v>6167</v>
+      </c>
+      <c r="B318" t="s">
+        <v>6168</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A319" t="s">
+        <v>6169</v>
+      </c>
+      <c r="B319" t="s">
+        <v>6170</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A320" t="s">
+        <v>6171</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A321" t="s">
+        <v>6172</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A322" t="s">
+        <v>6173</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A323" t="s">
+        <v>6175</v>
+      </c>
+      <c r="B323" t="s">
+        <v>6174</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="51" x14ac:dyDescent="0.45">
+      <c r="A324" t="s">
+        <v>6176</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>6177</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="85" x14ac:dyDescent="0.45">
+      <c r="A325" t="s">
+        <v>6178</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>6179</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A326" t="s">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A327" t="s">
+        <v>6181</v>
+      </c>
+      <c r="B327" t="s">
+        <v>6182</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A328" t="s">
+        <v>6183</v>
+      </c>
+      <c r="B328" t="s">
+        <v>6184</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A329" t="s">
+        <v>6185</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A330" t="s">
+        <v>6186</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A331" t="s">
+        <v>6187</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A332" t="s">
+        <v>6188</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A333" t="s">
+        <v>6189</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A334" t="s">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A335" t="s">
+        <v>6191</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A336" t="s">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A337" t="s">
+        <v>6193</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A338" t="s">
+        <v>6194</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A339" t="s">
+        <v>6195</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A340" t="s">
+        <v>6196</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A341" t="s">
+        <v>6197</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A342" t="s">
+        <v>6198</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A343" t="s">
+        <v>6199</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A344" t="s">
+        <v>6200</v>
+      </c>
+      <c r="B344" t="s">
+        <v>6201</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A345" t="s">
+        <v>6202</v>
+      </c>
+      <c r="B345" t="s">
+        <v>6203</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A346" t="s">
+        <v>6204</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="51" x14ac:dyDescent="0.45">
+      <c r="A347" t="s">
+        <v>6205</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>6206</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="85" x14ac:dyDescent="0.45">
+      <c r="A348" t="s">
+        <v>6207</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>6208</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A349" t="s">
+        <v>6209</v>
+      </c>
+      <c r="B349" t="s">
+        <v>6210</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A350" t="s">
+        <v>6211</v>
+      </c>
+      <c r="B350" t="s">
+        <v>6212</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A351" t="s">
+        <v>6213</v>
+      </c>
+      <c r="B351" t="s">
+        <v>6214</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A352" t="s">
+        <v>6215</v>
+      </c>
+      <c r="B352" t="s">
+        <v>6216</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A353" t="s">
+        <v>6217</v>
+      </c>
+      <c r="B353" t="s">
+        <v>6218</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A354" t="s">
+        <v>6219</v>
+      </c>
+      <c r="B354" t="s">
+        <v>6220</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A355" t="s">
+        <v>6221</v>
+      </c>
+      <c r="B355" t="s">
+        <v>6174</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A356" t="s">
+        <v>6222</v>
+      </c>
+      <c r="B356" t="s">
+        <v>6223</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A357" t="s">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A358" t="s">
+        <v>6224</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A359" t="s">
+        <v>6225</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A360" t="s">
+        <v>6226</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A361" t="s">
+        <v>6227</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A362" t="s">
+        <v>6228</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A363" t="s">
+        <v>6229</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A364" t="s">
+        <v>6230</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A365" t="s">
+        <v>6231</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A366" t="s">
+        <v>6232</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A367" t="s">
+        <v>6233</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A368" t="s">
+        <v>6234</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A369" t="s">
+        <v>6235</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A370" t="s">
+        <v>6236</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A371" t="s">
+        <v>6237</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A372" t="s">
+        <v>6238</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A373" t="s">
+        <v>6239</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="51" x14ac:dyDescent="0.45">
+      <c r="A374" t="s">
+        <v>6241</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>6242</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A375" t="s">
+        <v>6243</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A376" t="s">
+        <v>6244</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A377" t="s">
+        <v>6245</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A378" t="s">
+        <v>6246</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A379" t="s">
+        <v>6247</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A380" t="s">
+        <v>6248</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A381" t="s">
+        <v>6249</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A382" t="s">
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A383" t="s">
+        <v>6251</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A384" t="s">
+        <v>6252</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A385" t="s">
+        <v>6253</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A386" t="s">
+        <v>6254</v>
+      </c>
+      <c r="B386" t="s">
+        <v>6255</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A387" t="s">
+        <v>6256</v>
+      </c>
+      <c r="B387" t="s">
+        <v>6257</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A388" t="s">
+        <v>6258</v>
+      </c>
+      <c r="B388" t="s">
+        <v>6259</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A389" t="s">
+        <v>6261</v>
+      </c>
+      <c r="B389" t="s">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A390" t="s">
+        <v>6263</v>
+      </c>
+      <c r="B390" t="s">
+        <v>6264</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A391" t="s">
+        <v>6265</v>
+      </c>
+      <c r="B391" t="s">
+        <v>6266</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="119" x14ac:dyDescent="0.45">
+      <c r="A392" t="s">
+        <v>6267</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>6268</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A393" t="s">
+        <v>6269</v>
+      </c>
+      <c r="B393" t="s">
+        <v>6264</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A394" t="s">
+        <v>6270</v>
+      </c>
+      <c r="B394" t="s">
+        <v>6271</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A395" t="s">
+        <v>6272</v>
+      </c>
+      <c r="B395" t="s">
+        <v>6273</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="238" x14ac:dyDescent="0.45">
+      <c r="A396" t="s">
+        <v>6274</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>6275</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A397" t="s">
+        <v>6276</v>
+      </c>
+      <c r="B397" t="s">
+        <v>6277</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A398" t="s">
+        <v>6278</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A399" t="s">
+        <v>6279</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A400" t="s">
+        <v>6280</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8B862E-BE06-4B91-8E46-372DBBCED14D}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
+        <v>5704</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5705</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>5706</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>5708</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5709</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>5710</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="102" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>5712</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5713</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>5714</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>5716</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="306" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
+        <v>5718</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5719</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>5720</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5721</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5722</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>5724</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5725</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>5727</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5728</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5729</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>5730</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3219</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>5732</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5733</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5734</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>5411</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5735</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5736</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>5737</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5738</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5739</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>5740</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5741</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>5742</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>5743</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>5744</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5745</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="61.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>5401</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>5367</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="85" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>5369</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>5371</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>5374</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>5375</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>5376</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>5377</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>5378</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>5391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="51" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>5379</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>5392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
+        <v>5380</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
+        <v>5381</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>5394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="51" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>5382</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="A14" s="4" t="s">
+        <v>5383</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>5396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
+        <v>5384</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>5385</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>5398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
+        <v>5386</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
+        <v>5387</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C003A7-7301-46CF-8E39-69D8E5101A8C}">
   <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView topLeftCell="A161" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
@@ -49972,176 +54642,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE49423A-0532-41AD-8F9C-A63ABC9D91BD}">
-  <dimension ref="A1:B22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="55.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>5669</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="170" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>5677</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5670</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="51" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>5671</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5672</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="119" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>5673</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5674</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="85" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>5676</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5675</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>5678</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5679</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>5680</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5681</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>5682</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>5683</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5684</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>5685</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5686</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="51" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>5687</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5688</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>5689</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>5690</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>5691</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>5692</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5693</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>5694</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5695</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>5696</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>5697</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>5698</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5699</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>5701</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5702</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>5703</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5704</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>